--- a/1-100/完成时间表.xlsx
+++ b/1-100/完成时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\-Leetcode\1-100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62668A0E-018B-4750-9892-F1EDDD2CD6B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77C1835-D147-4646-BBE6-D08B8B705C2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107:H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -996,44 +996,814 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>630</v>
+      </c>
+      <c r="C97">
+        <v>95</v>
+      </c>
+      <c r="D97">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <f>16 * 60 + 40</f>
+        <v>1000</v>
+      </c>
+      <c r="C99">
+        <v>55</v>
+      </c>
+      <c r="D99">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>310</v>
+      </c>
+      <c r="C101">
+        <v>97</v>
+      </c>
+      <c r="D101">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>390</v>
+      </c>
+      <c r="C102">
+        <v>99</v>
+      </c>
+      <c r="D102">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>570</v>
+      </c>
+      <c r="C103">
+        <v>92</v>
+      </c>
+      <c r="D103">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
+      </c>
+      <c r="B104">
+        <v>630</v>
+      </c>
+      <c r="C104">
+        <v>91</v>
+      </c>
+      <c r="D104">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>115</v>
+      </c>
+      <c r="C105">
+        <v>99</v>
+      </c>
+      <c r="D105">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>3300</v>
+      </c>
+      <c r="C106">
+        <v>91</v>
+      </c>
+      <c r="D106">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>317</v>
+      </c>
+      <c r="C107">
+        <v>99</v>
+      </c>
+      <c r="D107">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>300</v>
+      </c>
+      <c r="C108">
+        <v>91</v>
+      </c>
+      <c r="D108">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>760</v>
+      </c>
+      <c r="C109">
+        <v>99</v>
+      </c>
+      <c r="D109">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
